--- a/parabolic/2025/09/01/parabolic.xlsx
+++ b/parabolic/2025/09/01/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2127</t>
+          <t>1852</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>770</v>
+        <v>862</v>
       </c>
       <c r="D2" t="n">
-        <v>1089600</v>
+        <v>193200</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3236</t>
+          <t>2127</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>221</v>
+        <v>765.2999877929688</v>
       </c>
       <c r="D3" t="n">
-        <v>176800</v>
+        <v>1609400</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3726</t>
+          <t>286A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>751</v>
+        <v>972</v>
       </c>
       <c r="D4" t="n">
-        <v>861200</v>
+        <v>113000</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>3845</t>
+          <t>3236</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="D5" t="n">
-        <v>355500</v>
+        <v>279000</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>3929</t>
+          <t>3726</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>311</v>
+        <v>755</v>
       </c>
       <c r="D6" t="n">
-        <v>1372600</v>
+        <v>921400</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>5020</t>
+          <t>3845</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>885</v>
+        <v>242</v>
       </c>
       <c r="D7" t="n">
-        <v>1526500</v>
+        <v>624300</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>6085</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="D8" t="n">
-        <v>325900</v>
+        <v>2215700</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>7245</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>906</v>
+        <v>853</v>
       </c>
       <c r="D9" t="n">
-        <v>175700</v>
+        <v>147900</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>8628</t>
+          <t>4576</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>790</v>
+        <v>114</v>
       </c>
       <c r="D10" t="n">
-        <v>651200</v>
+        <v>3086100</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>8789</t>
+          <t>5020</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>113</v>
+        <v>883.5</v>
       </c>
       <c r="D11" t="n">
-        <v>323800</v>
+        <v>2757000</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>9162</t>
+          <t>6085</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,16 +712,108 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>395</v>
+        <v>275</v>
       </c>
       <c r="D12" t="n">
-        <v>247000</v>
+        <v>376500</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>889</v>
+      </c>
+      <c r="D13" t="n">
+        <v>269700</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>8628</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>787</v>
+      </c>
+      <c r="D14" t="n">
+        <v>883800</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>8789</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>113</v>
+      </c>
+      <c r="D15" t="n">
+        <v>432300</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>9162</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>382</v>
+      </c>
+      <c r="D16" t="n">
+        <v>359500</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/09/01/parabolic.xlsx
+++ b/parabolic/2025/09/01/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D2" t="n">
-        <v>193200</v>
+        <v>246100</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>765.2999877929688</v>
+        <v>773.2999877929688</v>
       </c>
       <c r="D3" t="n">
-        <v>1609400</v>
+        <v>2187300</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="D4" t="n">
-        <v>113000</v>
+        <v>148300</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -554,7 +554,7 @@
         <v>220</v>
       </c>
       <c r="D5" t="n">
-        <v>279000</v>
+        <v>315200</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D7" t="n">
-        <v>624300</v>
+        <v>768700</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D8" t="n">
-        <v>2215700</v>
+        <v>2645100</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>853</v>
+        <v>868</v>
       </c>
       <c r="D9" t="n">
-        <v>147900</v>
+        <v>265400</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>4576</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>114</v>
+        <v>976</v>
       </c>
       <c r="D10" t="n">
-        <v>3086100</v>
+        <v>1812100</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>5020</t>
+          <t>4576</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>883.5</v>
+        <v>114</v>
       </c>
       <c r="D11" t="n">
-        <v>2757000</v>
+        <v>3370900</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>6085</t>
+          <t>5020</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>275</v>
+        <v>883.4000244140625</v>
       </c>
       <c r="D12" t="n">
-        <v>376500</v>
+        <v>3597800</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>7245</t>
+          <t>6085</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>889</v>
+        <v>274</v>
       </c>
       <c r="D13" t="n">
-        <v>269700</v>
+        <v>392300</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>8628</t>
+          <t>7044</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>787</v>
+        <v>663</v>
       </c>
       <c r="D14" t="n">
-        <v>883800</v>
+        <v>154000</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>8789</t>
+          <t>7245</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>113</v>
+        <v>888</v>
       </c>
       <c r="D15" t="n">
-        <v>432300</v>
+        <v>349200</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>9162</t>
+          <t>8628</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,16 +804,62 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>382</v>
+        <v>785</v>
       </c>
       <c r="D16" t="n">
-        <v>359500</v>
+        <v>1017700</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>8789</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>113</v>
+      </c>
+      <c r="D17" t="n">
+        <v>805200</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>9162</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>390</v>
+      </c>
+      <c r="D18" t="n">
+        <v>377600</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/09/01/parabolic.xlsx
+++ b/parabolic/2025/09/01/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="D2" t="n">
-        <v>246100</v>
+        <v>321200</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>773.2999877929688</v>
+        <v>782.2999877929688</v>
       </c>
       <c r="D3" t="n">
-        <v>2187300</v>
+        <v>4007600</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>966</v>
+        <v>955</v>
       </c>
       <c r="D4" t="n">
-        <v>148300</v>
+        <v>193200</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D5" t="n">
-        <v>315200</v>
+        <v>362000</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -577,7 +577,7 @@
         <v>755</v>
       </c>
       <c r="D6" t="n">
-        <v>921400</v>
+        <v>1115600</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D7" t="n">
-        <v>768700</v>
+        <v>848800</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D8" t="n">
-        <v>2645100</v>
+        <v>2907600</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>868</v>
+        <v>881</v>
       </c>
       <c r="D9" t="n">
-        <v>265400</v>
+        <v>382700</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>976</v>
+        <v>984</v>
       </c>
       <c r="D10" t="n">
-        <v>1812100</v>
+        <v>2302300</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D11" t="n">
-        <v>3370900</v>
+        <v>3657900</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>883.4000244140625</v>
+        <v>885</v>
       </c>
       <c r="D12" t="n">
-        <v>3597800</v>
+        <v>5747200</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D13" t="n">
-        <v>392300</v>
+        <v>418700</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="D14" t="n">
-        <v>154000</v>
+        <v>168500</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -784,7 +784,7 @@
         <v>888</v>
       </c>
       <c r="D15" t="n">
-        <v>349200</v>
+        <v>422300</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>8628</t>
+          <t>7345</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>785</v>
+        <v>579</v>
       </c>
       <c r="D16" t="n">
-        <v>1017700</v>
+        <v>106300</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>8789</t>
+          <t>8613</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>113</v>
+        <v>962</v>
       </c>
       <c r="D17" t="n">
-        <v>805200</v>
+        <v>126200</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>9162</t>
+          <t>8628</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,16 +850,85 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>390</v>
+        <v>788</v>
       </c>
       <c r="D18" t="n">
-        <v>377600</v>
+        <v>1272600</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>8783</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>442</v>
+      </c>
+      <c r="D19" t="n">
+        <v>315600</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>8789</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>112</v>
+      </c>
+      <c r="D20" t="n">
+        <v>849100</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>9162</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>392</v>
+      </c>
+      <c r="D21" t="n">
+        <v>408400</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
